--- a/public/danh-sach-san-pham.xlsx
+++ b/public/danh-sach-san-pham.xlsx
@@ -15,11 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>Nhóm Sản Phẩm</t>
+  </si>
   <si>
     <t>Loại Sản Phẩm</t>
   </si>
   <si>
+    <t>Đơn Vị Tính</t>
+  </si>
+  <si>
     <t>Quy Cách</t>
   </si>
   <si>
@@ -32,12 +38,12 @@
     <t>Tiêu Chuẩn</t>
   </si>
   <si>
+    <t>Điều Kiện Lưu Trữ</t>
+  </si>
+  <si>
     <t>Điều Kiện Vận Chuyển</t>
   </si>
   <si>
-    <t>Điều Kiện Lưu Trữ</t>
-  </si>
-  <si>
     <t>Khối Lượng Riêng</t>
   </si>
   <si>
@@ -50,16 +56,25 @@
     <t>Hạn Sử Dụng</t>
   </si>
   <si>
-    <t>Hạn Sử Dụng Sau Khi Mở</t>
-  </si>
-  <si>
-    <t>Hình ảnh</t>
-  </si>
-  <si>
-    <t>CÀ PHÊ ĐẶC BIỆT SÁU NHUNG - LOẠI ĐẬM ĐẶC</t>
-  </si>
-  <si>
-    <t>Cà Phê</t>
+    <t>Hạn Sử Dụng Sau Mở Hộp</t>
+  </si>
+  <si>
+    <t>Hình ảnh sản phẩm đại diện</t>
+  </si>
+  <si>
+    <t>Hình ảnh sản phẩm đính kèm</t>
+  </si>
+  <si>
+    <t>Phân hạng</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Iphone 13 Pro</t>
   </si>
   <si>
     <t>Ocop.4</t>
@@ -68,88 +83,25 @@
     <t>Tốt</t>
   </si>
   <si>
-    <t>500 gram</t>
-  </si>
-  <si>
-    <t>1 năm</t>
-  </si>
-  <si>
-    <t>55ea9194f442487297515ee7ef71c83a.jpg?856f3c7e634c4836a1e6b3445a96c39b.jpg?caphe1.jpg</t>
-  </si>
-  <si>
-    <t>BỘT ĐẬU XANH DINH DƯỠNG 400G - RỒNG VÀNG HOÀNG GIA</t>
-  </si>
-  <si>
-    <t>Bột Đậu Xanh</t>
-  </si>
-  <si>
-    <t>400 gram</t>
-  </si>
-  <si>
-    <t>12 tháng</t>
-  </si>
-  <si>
-    <t>3fe4eba506e4418a854db0120be870bb.jpg?f55921011bcf4ff4a4e7651102c4cb03.jpg</t>
-  </si>
-  <si>
-    <t>BÁNH ĐẬU XANH TRÀ XANH 170G - RỒNG VÀNG HOÀNG GIA</t>
-  </si>
-  <si>
-    <t>170 gram</t>
-  </si>
-  <si>
-    <t>9 tháng</t>
-  </si>
-  <si>
-    <t>1 ngày</t>
-  </si>
-  <si>
-    <t>cd71d0ac14dc4ead954f807f1582a0ed.jpg</t>
-  </si>
-  <si>
-    <t>CAM KHE XAI</t>
-  </si>
-  <si>
-    <t>Cam Xã Đoài, cam V2</t>
-  </si>
-  <si>
-    <t>5 Kg</t>
-  </si>
-  <si>
-    <t>20 ngày</t>
-  </si>
-  <si>
-    <t>10 ngày</t>
-  </si>
-  <si>
-    <t>be93353aff6d4718a33635f83a882acb.png?ea568c5fbdae47069294cf9c907292d7.jpg?f1f36a09ef7f4302a210464568e965c3.jpg</t>
-  </si>
-  <si>
-    <t>SẦU RIÊNG RI6</t>
-  </si>
-  <si>
-    <t>0.3 Kg</t>
-  </si>
-  <si>
-    <t>7 tháng</t>
-  </si>
-  <si>
-    <t>3 ngày</t>
-  </si>
-  <si>
-    <t>2fe3c316b6e64f96bfdb533963dc61a9.jpg?d7a66ab5021c4b48a3740294a5802d0d.jpg</t>
-  </si>
-  <si>
-    <t>RƯỢU VANG THANH LONG ĐỎ</t>
-  </si>
-  <si>
-    <t>250 gram</t>
-  </si>
-  <si>
-    <t>14 ngày</t>
-  </si>
-  <si>
-    <t>9ae2c392dfde444e94e3936ad2519943.png</t>
+    <t>200 gram</t>
+  </si>
+  <si>
+    <t>cong-ty-co-phan-rau-qua-thuc-pham-an-giang-antesco/iphone-13-pro.png</t>
+  </si>
+  <si>
+    <t>sanpham/0000003</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>Iphone 13</t>
+  </si>
+  <si>
+    <t>cong-ty-co-phan-rau-qua-thuc-pham-an-giang-antesco/iphone-13.jpg</t>
+  </si>
+  <si>
+    <t>sanpham/0000004</t>
   </si>
 </sst>
 </file>
@@ -488,7 +440,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +450,7 @@
   <cols>
     <col min="1" max="1" width="15" customWidth="true" style="0"/>
     <col min="2" max="2" width="15" customWidth="true" style="0"/>
-    <col min="3" max="3" width="70" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" customWidth="true" style="0"/>
     <col min="5" max="5" width="15" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
@@ -508,10 +460,16 @@
     <col min="10" max="10" width="15" customWidth="true" style="0"/>
     <col min="11" max="11" width="15" customWidth="true" style="0"/>
     <col min="12" max="12" width="15" customWidth="true" style="0"/>
-    <col min="13" max="13" width="50" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15" customWidth="true" style="0"/>
+    <col min="19" max="19" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,245 +509,117 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:19">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+      <c r="D2">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>60000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>25000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="I3">
-        <v>99</v>
-      </c>
-      <c r="J3">
-        <v>42000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>35000000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>98</v>
-      </c>
-      <c r="J4">
-        <v>30000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>200000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6">
-        <v>98</v>
-      </c>
-      <c r="J6">
-        <v>1050000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>30000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
